--- a/original_files/IBS/IBS.xlsx
+++ b/original_files/IBS/IBS.xlsx
@@ -4,25 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14440" tabRatio="612"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14560" tabRatio="612" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="A_amplicons_family" sheetId="1" r:id="rId1"/>
-    <sheet name="B_amplicons_family" sheetId="2" r:id="rId2"/>
-    <sheet name="C_amplicons_family" sheetId="3" r:id="rId3"/>
-    <sheet name="P1_metatranscriptomes_family" sheetId="5" r:id="rId4"/>
-    <sheet name="C1_metatranscriptomes_family" sheetId="7" r:id="rId5"/>
-    <sheet name="P2 Metatranscriptores" sheetId="8" r:id="rId6"/>
+    <sheet name="h_A" sheetId="1" r:id="rId1"/>
+    <sheet name="h_B" sheetId="2" r:id="rId2"/>
+    <sheet name="h_C" sheetId="3" r:id="rId3"/>
+    <sheet name="P1" sheetId="5" r:id="rId4"/>
+    <sheet name="h_C1" sheetId="7" r:id="rId5"/>
+    <sheet name="P2" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_C1_metatranscriptomes_family" localSheetId="4">'C1_metatranscriptomes_family'!$A$1:$J$101</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'C1_metatranscriptomes_family'!#REF!</definedName>
-    <definedName name="A_amplicons_family" localSheetId="0">A_amplicons_family!$A$1:$AE$45</definedName>
-    <definedName name="A_amplicons_family_1" localSheetId="0">A_amplicons_family!#REF!</definedName>
-    <definedName name="B_amplicons_family" localSheetId="1">B_amplicons_family!$A$1:$P$37</definedName>
-    <definedName name="C_amplicons_family" localSheetId="2">C_amplicons_family!$A$1:$P$38</definedName>
-    <definedName name="P1_metatranscriptomes_family" localSheetId="3">P1_metatranscriptomes_family!$A$1:$J$84</definedName>
-    <definedName name="P2_metatranscriptomes_family" localSheetId="5">'P2 Metatranscriptores'!$A$1:$O$117</definedName>
+    <definedName name="_C1_metatranscriptomes_family" localSheetId="4">h_C1!$A$1:$J$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">h_C1!#REF!</definedName>
+    <definedName name="A_amplicons_family" localSheetId="0">h_A!$A$1:$AE$45</definedName>
+    <definedName name="A_amplicons_family_1" localSheetId="0">h_A!#REF!</definedName>
+    <definedName name="B_amplicons_family" localSheetId="1">h_B!$A$1:$P$37</definedName>
+    <definedName name="C_amplicons_family" localSheetId="2">h_C!$A$1:$P$38</definedName>
+    <definedName name="P1_metatranscriptomes_family" localSheetId="3">'P1'!$A$1:$J$84</definedName>
+    <definedName name="P2_metatranscriptomes_family" localSheetId="5">'P2'!$A$1:$O$117</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="230">
   <si>
     <t>A.1</t>
   </si>
@@ -860,6 +860,9 @@
   </si>
   <si>
     <t>uc_Rickettsiales</t>
+  </si>
+  <si>
+    <t>Taxon</t>
   </si>
 </sst>
 </file>
@@ -908,8 +911,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="257">
+  <cellStyleXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1170,7 +1175,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="257">
+  <cellStyles count="259">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1299,6 +1304,7 @@
     <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1427,6 +1433,7 @@
     <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1823,9 +1830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
-    </sheetView>
+    <sheetView showRuler="0" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1838,6 +1843,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
+      <c r="A1" t="s">
+        <v>229</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4307,6 +4315,9 @@
     <row r="27" spans="1:31">
       <c r="A27" t="s">
         <v>55</v>
+      </c>
+      <c r="B27">
+        <v>9.5238094999999995E-2</v>
       </c>
       <c r="C27">
         <v>0.10162866399999999</v>
@@ -6125,9 +6136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
-    </sheetView>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -6136,6 +6145,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>229</v>
+      </c>
       <c r="B1" t="s">
         <v>74</v>
       </c>
@@ -7997,9 +8009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
-    </sheetView>
+    <sheetView showRuler="0" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -8008,6 +8018,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>229</v>
+      </c>
       <c r="B1" t="s">
         <v>92</v>
       </c>
@@ -9920,7 +9933,7 @@
   <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9930,6 +9943,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>229</v>
+      </c>
       <c r="B1" t="s">
         <v>112</v>
       </c>
@@ -12629,9 +12645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
-    </sheetView>
+    <sheetView showRuler="0" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -12640,6 +12654,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>229</v>
+      </c>
       <c r="B1" t="s">
         <v>164</v>
       </c>
@@ -15883,9 +15900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O117"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
-    </sheetView>
+    <sheetView showRuler="0" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
